--- a/src/test/resources/excel/BankManagerSuite.xlsx
+++ b/src/test/resources/excel/BankManagerSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
